--- a/PathPlanner/UserStudyData/DataCombined.xlsx
+++ b/PathPlanner/UserStudyData/DataCombined.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,13 +11,14 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Groups" sheetId="3" r:id="rId3"/>
     <sheet name="Surveys" sheetId="4" r:id="rId4"/>
+    <sheet name="organization" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="275">
   <si>
     <t xml:space="preserve">Scenario 1 Manual </t>
   </si>
@@ -833,13 +834,22 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -974,6 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,6 +1075,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1098,6 +1110,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1273,17 +1286,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA132" sqref="AA132"/>
+      <selection pane="bottomRight" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
@@ -1291,7 +1304,7 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C1" s="17" t="s">
         <v>15</v>
       </c>
@@ -1322,13 +1335,13 @@
       </c>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" s="5" customFormat="1">
+    <row r="2" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:28" s="7" customFormat="1">
+    <row r="3" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -1404,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="7" customFormat="1">
+    <row r="4" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2.4305555555555556E-2</v>
       </c>
@@ -1454,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="7" customFormat="1">
+    <row r="5" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3.0555555555555555E-2</v>
       </c>
@@ -1504,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="7" customFormat="1">
+    <row r="6" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4.027777777777778E-2</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="7" customFormat="1">
+    <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4.8611111111111112E-2</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="7" customFormat="1">
+    <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
@@ -1693,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="7" customFormat="1">
+    <row r="9" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7.0833333333333331E-2</v>
       </c>
@@ -1744,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="7" customFormat="1">
+    <row r="10" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -1807,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="7" customFormat="1">
+    <row r="11" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9.2361111111111116E-2</v>
       </c>
@@ -1857,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="7" customFormat="1">
+    <row r="12" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>0.10277777777777779</v>
       </c>
@@ -1881,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="7" customFormat="1">
+    <row r="13" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>0.11041666666666666</v>
       </c>
@@ -1918,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="7" customFormat="1">
+    <row r="14" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>0.1173611111111111</v>
       </c>
@@ -1955,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="7" customFormat="1">
+    <row r="15" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>0.12569444444444444</v>
       </c>
@@ -1979,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="7" customFormat="1">
+    <row r="16" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>0.1361111111111111</v>
       </c>
@@ -2003,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="7" customFormat="1">
+    <row r="17" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>0.14861111111111111</v>
       </c>
@@ -2027,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="7" customFormat="1">
+    <row r="18" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>0.15694444444444444</v>
       </c>
@@ -2051,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="7" customFormat="1">
+    <row r="19" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0.17013888888888887</v>
       </c>
@@ -2063,7 +2076,7 @@
       </c>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:27" s="7" customFormat="1">
+    <row r="20" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>0.17708333333333334</v>
       </c>
@@ -2087,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="7" customFormat="1">
+    <row r="21" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>0.18472222222222223</v>
       </c>
@@ -2111,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="7" customFormat="1">
+    <row r="22" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>0.19722222222222222</v>
       </c>
@@ -2122,7 +2135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="9" customFormat="1">
+    <row r="23" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="20"/>
       <c r="D23" s="16">
         <f>COUNTA(D2:D22)/20</f>
@@ -2190,14 +2203,30 @@
         <f>SUM(AA3:AA22)/COUNTA(AA3:AA22)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" s="5" customFormat="1">
+      <c r="AC23" s="22">
+        <f>AVERAGE(D23,L23,P23,T23,X23)</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="AD23" s="9">
+        <f>STDEV(D23,L23,P23,T23,X23)</f>
+        <v>0.29664793948382645</v>
+      </c>
+      <c r="AE23" s="14">
+        <f>AVERAGE(F23,N23,R23,V23,Z23)</f>
+        <v>7.8580246913580263E-3</v>
+      </c>
+      <c r="AF23" s="9">
+        <f>STDEV(F23,N23,R23,V23,Z23)</f>
+        <v>1.4952083165895233E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="18"/>
     </row>
-    <row r="25" spans="1:27" s="7" customFormat="1">
+    <row r="25" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>9.7222222222222224E-3</v>
       </c>
@@ -2273,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="7" customFormat="1">
+    <row r="26" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2.361111111111111E-2</v>
       </c>
@@ -2323,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="7" customFormat="1">
+    <row r="27" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>3.0555555555555555E-2</v>
       </c>
@@ -2373,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="7" customFormat="1">
+    <row r="28" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>3.9583333333333331E-2</v>
       </c>
@@ -2397,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="7" customFormat="1">
+    <row r="29" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>4.5138888888888888E-2</v>
       </c>
@@ -2435,7 +2464,7 @@
       </c>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:27" s="7" customFormat="1">
+    <row r="30" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>5.6944444444444443E-2</v>
       </c>
@@ -2460,7 +2489,7 @@
       </c>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:27" s="7" customFormat="1">
+    <row r="31" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>6.458333333333334E-2</v>
       </c>
@@ -2486,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="7" customFormat="1">
+    <row r="32" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
@@ -2510,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="7" customFormat="1">
+    <row r="33" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>29</v>
       </c>
@@ -2547,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="7" customFormat="1">
+    <row r="34" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>30</v>
       </c>
@@ -2559,7 +2588,7 @@
       </c>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:27" s="7" customFormat="1">
+    <row r="35" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>31</v>
       </c>
@@ -2596,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="7" customFormat="1">
+    <row r="36" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>32</v>
       </c>
@@ -2633,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="7" customFormat="1">
+    <row r="37" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>33</v>
       </c>
@@ -2657,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="7" customFormat="1">
+    <row r="38" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>34</v>
       </c>
@@ -2681,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="7" customFormat="1">
+    <row r="39" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -2718,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="7" customFormat="1">
+    <row r="40" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>36</v>
       </c>
@@ -2742,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="7" customFormat="1">
+    <row r="41" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>37</v>
       </c>
@@ -2766,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="7" customFormat="1">
+    <row r="42" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>38</v>
       </c>
@@ -2790,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="7" customFormat="1">
+    <row r="43" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
@@ -2814,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="7" customFormat="1">
+    <row r="44" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>40</v>
       </c>
@@ -2851,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="9" customFormat="1">
+    <row r="45" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="20"/>
       <c r="D45" s="16">
         <f>COUNTA(D24:D44)/20</f>
@@ -2919,14 +2948,30 @@
         <f>SUM(AA25:AA44)/COUNTA(AA25:AA44)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" s="5" customFormat="1">
+      <c r="AC45" s="22">
+        <f>AVERAGE(D45,L45,P45,T45,X45)</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="AD45" s="9">
+        <f>STDEV(D45,L45,P45,T45,X45)</f>
+        <v>0.30536862969204942</v>
+      </c>
+      <c r="AE45" s="14">
+        <f>AVERAGE(F45,N45,R45,V45,Z45)</f>
+        <v>8.0417444755680051E-3</v>
+      </c>
+      <c r="AF45" s="9">
+        <f>STDEV(F45,N45,R45,V45,Z45)</f>
+        <v>1.380453111721978E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="18"/>
     </row>
-    <row r="47" spans="1:27" s="7" customFormat="1">
+    <row r="47" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>50</v>
       </c>
@@ -2965,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="7" customFormat="1">
+    <row r="48" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>51</v>
       </c>
@@ -3016,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="7" customFormat="1">
+    <row r="49" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>52</v>
       </c>
@@ -3041,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="7" customFormat="1">
+    <row r="50" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>53</v>
       </c>
@@ -3066,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="7" customFormat="1">
+    <row r="51" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>54</v>
       </c>
@@ -3118,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="7" customFormat="1">
+    <row r="52" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>55</v>
       </c>
@@ -3168,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="7" customFormat="1">
+    <row r="53" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>56</v>
       </c>
@@ -3231,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="7" customFormat="1">
+    <row r="54" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>57</v>
       </c>
@@ -3268,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="7" customFormat="1">
+    <row r="55" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>58</v>
       </c>
@@ -3305,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="7" customFormat="1">
+    <row r="56" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>59</v>
       </c>
@@ -3342,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="7" customFormat="1">
+    <row r="57" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>60</v>
       </c>
@@ -3392,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="7" customFormat="1">
+    <row r="58" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>61</v>
       </c>
@@ -3416,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="7" customFormat="1">
+    <row r="59" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>62</v>
       </c>
@@ -3440,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="7" customFormat="1">
+    <row r="60" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>63</v>
       </c>
@@ -3453,7 +3498,7 @@
       <c r="X60" s="1"/>
       <c r="Y60"/>
     </row>
-    <row r="61" spans="1:27" s="7" customFormat="1">
+    <row r="61" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>64</v>
       </c>
@@ -3477,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="7" customFormat="1">
+    <row r="62" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>65</v>
       </c>
@@ -3501,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="7" customFormat="1">
+    <row r="63" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>66</v>
       </c>
@@ -3512,7 +3557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="7" customFormat="1">
+    <row r="64" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>67</v>
       </c>
@@ -3523,7 +3568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="7" customFormat="1">
+    <row r="65" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>68</v>
       </c>
@@ -3547,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="7" customFormat="1">
+    <row r="66" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>40</v>
       </c>
@@ -3571,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="9" customFormat="1">
+    <row r="67" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="20"/>
       <c r="D67" s="16">
         <f>COUNTA(D46:D66)/20</f>
@@ -3639,14 +3684,30 @@
         <f>SUM(AA47:AA66)/COUNTA(AA47:AA66)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" s="5" customFormat="1">
+      <c r="AC67" s="22">
+        <f>AVERAGE(D67,L67,P67,T67,X67)</f>
+        <v>0.32</v>
+      </c>
+      <c r="AD67" s="9">
+        <f>STDEV(D67,L67,P67,T67,X67)</f>
+        <v>0.2612470095522626</v>
+      </c>
+      <c r="AE67" s="14">
+        <f>AVERAGE(F67,N67,R67,V67,Z67)</f>
+        <v>9.6134259259259246E-3</v>
+      </c>
+      <c r="AF67" s="9">
+        <f>STDEV(F67,N67,R67,V67,Z67)</f>
+        <v>3.7105116827566764E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="18"/>
     </row>
-    <row r="69" spans="1:27" s="7" customFormat="1">
+    <row r="69" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>72</v>
       </c>
@@ -3683,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="7" customFormat="1">
+    <row r="70" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>73</v>
       </c>
@@ -3733,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="7" customFormat="1">
+    <row r="71" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>74</v>
       </c>
@@ -3783,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="7" customFormat="1">
+    <row r="72" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>75</v>
       </c>
@@ -3833,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="7" customFormat="1">
+    <row r="73" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>76</v>
       </c>
@@ -3870,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="7" customFormat="1">
+    <row r="74" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>77</v>
       </c>
@@ -3922,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="7" customFormat="1">
+    <row r="75" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>78</v>
       </c>
@@ -3973,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="7" customFormat="1">
+    <row r="76" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>79</v>
       </c>
@@ -3984,7 +4045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="7" customFormat="1">
+    <row r="77" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>80</v>
       </c>
@@ -4034,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="7" customFormat="1">
+    <row r="78" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>30</v>
       </c>
@@ -4071,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="7" customFormat="1">
+    <row r="79" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>32</v>
       </c>
@@ -4095,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="7" customFormat="1">
+    <row r="80" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>62</v>
       </c>
@@ -4119,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="7" customFormat="1">
+    <row r="81" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>81</v>
       </c>
@@ -4130,7 +4191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="7" customFormat="1">
+    <row r="82" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>82</v>
       </c>
@@ -4167,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="7" customFormat="1">
+    <row r="83" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>83</v>
       </c>
@@ -4178,7 +4239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:27" s="7" customFormat="1">
+    <row r="84" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>84</v>
       </c>
@@ -4202,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="7" customFormat="1">
+    <row r="85" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>85</v>
       </c>
@@ -4226,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" s="7" customFormat="1">
+    <row r="86" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>86</v>
       </c>
@@ -4237,7 +4298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="7" customFormat="1">
+    <row r="87" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>87</v>
       </c>
@@ -4261,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:27" s="7" customFormat="1">
+    <row r="88" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>88</v>
       </c>
@@ -4272,7 +4333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="9" customFormat="1">
+    <row r="89" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="20"/>
       <c r="D89" s="16">
         <f>COUNTA(D68:D88)/20</f>
@@ -4340,14 +4401,30 @@
         <f>SUM(AA69:AA88)/COUNTA(AA69:AA88)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" s="5" customFormat="1">
+      <c r="AC89" s="22">
+        <f>AVERAGE(D89,L89,P89,T89,X89)</f>
+        <v>0.31</v>
+      </c>
+      <c r="AD89" s="9">
+        <f>STDEV(D89,L89,P89,T89,X89)</f>
+        <v>0.20432816741702545</v>
+      </c>
+      <c r="AE89" s="14">
+        <f>AVERAGE(F89,N89,R89,V89,Z89)</f>
+        <v>8.4826388888888903E-3</v>
+      </c>
+      <c r="AF89" s="9">
+        <f>STDEV(F89,N89,R89,V89,Z89)</f>
+        <v>3.2382916920132045E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="18"/>
     </row>
-    <row r="91" spans="1:27" s="7" customFormat="1">
+    <row r="91" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>90</v>
       </c>
@@ -4360,7 +4437,7 @@
       <c r="X91" s="1"/>
       <c r="Y91"/>
     </row>
-    <row r="92" spans="1:27" s="7" customFormat="1">
+    <row r="92" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>91</v>
       </c>
@@ -4397,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="7" customFormat="1">
+    <row r="93" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>92</v>
       </c>
@@ -4449,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="7" customFormat="1">
+    <row r="94" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>93</v>
       </c>
@@ -4512,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="7" customFormat="1">
+    <row r="95" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>94</v>
       </c>
@@ -4575,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" s="7" customFormat="1">
+    <row r="96" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>95</v>
       </c>
@@ -4612,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="7" customFormat="1">
+    <row r="97" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>96</v>
       </c>
@@ -4675,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="7" customFormat="1">
+    <row r="98" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>79</v>
       </c>
@@ -4700,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="7" customFormat="1">
+    <row r="99" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>97</v>
       </c>
@@ -4750,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="7" customFormat="1">
+    <row r="100" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>98</v>
       </c>
@@ -4774,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="7" customFormat="1">
+    <row r="101" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>99</v>
       </c>
@@ -4799,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="7" customFormat="1">
+    <row r="102" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>33</v>
       </c>
@@ -4842,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="7" customFormat="1">
+    <row r="103" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>64</v>
       </c>
@@ -4866,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="7" customFormat="1">
+    <row r="104" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>100</v>
       </c>
@@ -4896,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="7" customFormat="1">
+    <row r="105" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>101</v>
       </c>
@@ -4939,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" s="7" customFormat="1">
+    <row r="106" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>102</v>
       </c>
@@ -4982,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="7" customFormat="1">
+    <row r="107" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>103</v>
       </c>
@@ -5006,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="7" customFormat="1">
+    <row r="108" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>104</v>
       </c>
@@ -5030,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="7" customFormat="1">
+    <row r="109" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>105</v>
       </c>
@@ -5041,7 +5118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:27" s="7" customFormat="1">
+    <row r="110" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>106</v>
       </c>
@@ -5052,7 +5129,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="9" customFormat="1">
+    <row r="111" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C111" s="20"/>
       <c r="D111" s="16">
         <f>COUNTA(D90:D110)/20</f>
@@ -5120,14 +5197,30 @@
         <f>SUM(AA91:AA110)/COUNTA(AA91:AA110)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:27" s="5" customFormat="1">
+      <c r="AC111" s="22">
+        <f>AVERAGE(D111,L111,P111,T111,X111)</f>
+        <v>0.35</v>
+      </c>
+      <c r="AD111" s="9">
+        <f>STDEV(D111,L111,P111,T111,X111)</f>
+        <v>0.29790938219532459</v>
+      </c>
+      <c r="AE111" s="14">
+        <f>AVERAGE(F111,N111,R111,V111,Z111)</f>
+        <v>9.1680283224400919E-3</v>
+      </c>
+      <c r="AF111" s="9">
+        <f>STDEV(F111,N111,R111,V111,Z111)</f>
+        <v>4.5611088545297633E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C112" s="18"/>
     </row>
-    <row r="113" spans="1:27" s="7" customFormat="1">
+    <row r="113" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>50</v>
       </c>
@@ -5153,7 +5246,7 @@
       <c r="L113" s="1"/>
       <c r="M113"/>
     </row>
-    <row r="114" spans="1:27" s="7" customFormat="1">
+    <row r="114" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>91</v>
       </c>
@@ -5216,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="7" customFormat="1">
+    <row r="115" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>108</v>
       </c>
@@ -5253,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:27" s="7" customFormat="1">
+    <row r="116" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>109</v>
       </c>
@@ -5290,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="7" customFormat="1">
+    <row r="117" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>110</v>
       </c>
@@ -5340,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:27" s="7" customFormat="1">
+    <row r="118" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>111</v>
       </c>
@@ -5391,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="7" customFormat="1">
+    <row r="119" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>112</v>
       </c>
@@ -5443,7 +5536,7 @@
       </c>
       <c r="Z119" s="6"/>
     </row>
-    <row r="120" spans="1:27" s="7" customFormat="1">
+    <row r="120" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>113</v>
       </c>
@@ -5480,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="7" customFormat="1">
+    <row r="121" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>114</v>
       </c>
@@ -5543,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" s="7" customFormat="1">
+    <row r="122" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>98</v>
       </c>
@@ -5581,7 +5674,7 @@
       </c>
       <c r="Z122" s="6"/>
     </row>
-    <row r="123" spans="1:27" s="7" customFormat="1">
+    <row r="123" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>115</v>
       </c>
@@ -5631,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:27" s="7" customFormat="1">
+    <row r="124" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>116</v>
       </c>
@@ -5655,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="7" customFormat="1">
+    <row r="125" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>117</v>
       </c>
@@ -5679,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:27" s="7" customFormat="1">
+    <row r="126" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>81</v>
       </c>
@@ -5729,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="7" customFormat="1">
+    <row r="127" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>118</v>
       </c>
@@ -5753,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" s="7" customFormat="1">
+    <row r="128" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>83</v>
       </c>
@@ -5777,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="7" customFormat="1">
+    <row r="129" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>119</v>
       </c>
@@ -5801,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" s="7" customFormat="1">
+    <row r="130" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>120</v>
       </c>
@@ -5839,7 +5932,7 @@
       </c>
       <c r="Z130" s="6"/>
     </row>
-    <row r="131" spans="1:27" s="7" customFormat="1">
+    <row r="131" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>121</v>
       </c>
@@ -5876,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:27" s="7" customFormat="1">
+    <row r="132" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>122</v>
       </c>
@@ -5887,7 +5980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="9" customFormat="1">
+    <row r="133" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C133" s="20"/>
       <c r="D133" s="16">
         <f>COUNTA(D112:D132)/20</f>
@@ -5954,6 +6047,22 @@
       <c r="AA133" s="16">
         <f>SUM(AA113:AA132)/COUNTA(AA113:AA132)</f>
         <v>1</v>
+      </c>
+      <c r="AC133" s="22">
+        <f>AVERAGE(D133,L133,P133,T133,X133)</f>
+        <v>0.41</v>
+      </c>
+      <c r="AD133" s="9">
+        <f>STDEV(D133,L133,P133,T133,X133)</f>
+        <v>0.20432816741702559</v>
+      </c>
+      <c r="AE133" s="14">
+        <f>AVERAGE(F133,N133,R133,V133,Z133)</f>
+        <v>8.8645833333333372E-3</v>
+      </c>
+      <c r="AF133" s="9">
+        <f>STDEV(F133,N133,R133,V133,Z133)</f>
+        <v>1.3934170974843573E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5963,21 +6072,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23:T23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1">
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>124</v>
       </c>
@@ -6002,8 +6111,14 @@
       <c r="K1" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="5" customFormat="1">
+      <c r="V1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>131</v>
       </c>
@@ -6063,8 +6178,16 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1">
+      <c r="V2" s="5">
+        <f>AVERAGE(O2:T2)</f>
+        <v>172.66666666666666</v>
+      </c>
+      <c r="W2" s="5">
+        <f>STDEV(O2:T2)</f>
+        <v>65.448198345459971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>134</v>
       </c>
@@ -6121,8 +6244,16 @@
         <f t="shared" si="1"/>
         <v>0.48420874852220908</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="7" customFormat="1">
+      <c r="V3" s="7">
+        <f>AVERAGE(O3:T3)</f>
+        <v>0.5442492822158419</v>
+      </c>
+      <c r="W3" s="7">
+        <f>STDEV(O3:T3)</f>
+        <v>0.11280804747049737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>135</v>
       </c>
@@ -6152,8 +6283,16 @@
         <f>STDEV(C4:H4)</f>
         <v>9.9481991670184531</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1">
+      <c r="V4" s="7" t="e">
+        <f>AVERAGE(O4:T4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="7" t="e">
+        <f>STDEV(O4:T4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>136</v>
       </c>
@@ -6182,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1">
+    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -6239,8 +6378,16 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" s="7" customFormat="1">
+      <c r="V6" s="5">
+        <f>AVERAGE(O6:T6)</f>
+        <v>195.16666666666666</v>
+      </c>
+      <c r="W6" s="5">
+        <f>STDEV(O6:T6)</f>
+        <v>89.903095979319133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>134</v>
       </c>
@@ -6294,8 +6441,16 @@
         <f t="shared" ref="T7" si="9">H7/$B$27</f>
         <v>0.38000337780780274</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="7" customFormat="1">
+      <c r="V7" s="7">
+        <f t="shared" ref="V7:V8" si="10">AVERAGE(O7:T7)</f>
+        <v>0.68893204976636835</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" ref="W7:W8" si="11">STDEV(O7:T7)</f>
+        <v>0.15201641602489674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>135</v>
       </c>
@@ -6325,8 +6480,16 @@
         <f t="shared" si="4"/>
         <v>31.173172226558311</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1">
+      <c r="V8" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>136</v>
       </c>
@@ -6355,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="5" customFormat="1">
+    <row r="10" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>132</v>
       </c>
@@ -6381,39 +6544,47 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" ref="J10:J12" si="10">AVERAGE(C10:H10)</f>
+        <f t="shared" ref="J10:J12" si="12">AVERAGE(C10:H10)</f>
         <v>133.16666666666666</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" ref="K10:K12" si="11">STDEV(C10:H10)</f>
+        <f t="shared" ref="K10:K12" si="13">STDEV(C10:H10)</f>
         <v>66.9250824927894</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" ref="O10:T10" si="12">300-C10</f>
+        <f t="shared" ref="O10:T10" si="14">300-C10</f>
         <v>155</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>137</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>124</v>
       </c>
       <c r="S10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>160</v>
       </c>
       <c r="T10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="7" customFormat="1">
+      <c r="V10" s="5">
+        <f t="shared" ref="V10:V12" si="15">AVERAGE(O10:T10)</f>
+        <v>166.83333333333334</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" ref="W10:W12" si="16">STDEV(O10:T10)</f>
+        <v>66.925082492789414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
@@ -6436,11 +6607,11 @@
         <v>5846</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4807.666666666667</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2237.6562440792081</v>
       </c>
       <c r="O11" s="21">
@@ -6448,27 +6619,35 @@
         <v>0.99020435737206558</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" ref="P11" si="13">D11/$B$27</f>
+        <f t="shared" ref="P11" si="17">D11/$B$27</f>
         <v>1</v>
       </c>
       <c r="Q11" s="21">
-        <f t="shared" ref="Q11" si="14">E11/$B$27</f>
+        <f t="shared" ref="Q11" si="18">E11/$B$27</f>
         <v>0.98986657659179189</v>
       </c>
       <c r="R11" s="21">
-        <f t="shared" ref="R11" si="15">F11/$B$27</f>
+        <f t="shared" ref="R11" si="19">F11/$B$27</f>
         <v>4.8640432359398751E-2</v>
       </c>
       <c r="S11" s="21">
-        <f t="shared" ref="S11" si="16">G11/$B$27</f>
+        <f t="shared" ref="S11" si="20">G11/$B$27</f>
         <v>0.85576760682317177</v>
       </c>
       <c r="T11" s="21">
-        <f t="shared" ref="T11" si="17">H11/$B$27</f>
+        <f t="shared" ref="T11" si="21">H11/$B$27</f>
         <v>0.98733322073973995</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" s="7" customFormat="1">
+      <c r="V11" s="7">
+        <f t="shared" si="15"/>
+        <v>0.81196869898102797</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="16"/>
+        <v>0.37791863605458675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>135</v>
       </c>
@@ -6491,15 +6670,23 @@
         <v>94</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>49.333333333333336</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22.393451423723562</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1">
+      <c r="V12" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>136</v>
       </c>
@@ -6528,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="5" customFormat="1">
+    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -6554,39 +6741,47 @@
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" ref="J14:J16" si="18">AVERAGE(C14:H14)</f>
+        <f t="shared" ref="J14:J16" si="22">AVERAGE(C14:H14)</f>
         <v>114.66666666666667</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" ref="K14:K16" si="19">STDEV(C14:H14)</f>
+        <f t="shared" ref="K14:K16" si="23">STDEV(C14:H14)</f>
         <v>63.814313963770431</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" ref="O14:T14" si="20">300-C14</f>
+        <f t="shared" ref="O14:T14" si="24">300-C14</f>
         <v>165</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>131</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>149</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>148</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>219</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" s="7" customFormat="1">
+      <c r="V14" s="5">
+        <f t="shared" ref="V14:V16" si="25">AVERAGE(O14:T14)</f>
+        <v>185.33333333333334</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" ref="W14:W16" si="26">STDEV(O14:T14)</f>
+        <v>63.814313963770452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>134</v>
       </c>
@@ -6609,11 +6804,11 @@
         <v>835</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>978</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>252.71644188694964</v>
       </c>
       <c r="O15" s="21">
@@ -6621,27 +6816,35 @@
         <v>0.47385800770500824</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" ref="P15:T15" si="21">D15/$B$28</f>
+        <f t="shared" ref="P15:T15" si="27">D15/$B$28</f>
         <v>0.73802971931755645</v>
       </c>
       <c r="Q15" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.67363786461199782</v>
       </c>
       <c r="R15" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.51183269124931208</v>
       </c>
       <c r="S15" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.37259218492019813</v>
       </c>
       <c r="T15" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.45954870665932857</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" s="7" customFormat="1">
+      <c r="V15" s="7">
+        <f t="shared" si="25"/>
+        <v>0.53824986241056694</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="26"/>
+        <v>0.13908444792897603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>135</v>
       </c>
@@ -6664,15 +6867,23 @@
         <v>39</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>20.833333333333332</v>
       </c>
       <c r="K16" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>14.838014242703323</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" s="9" customFormat="1">
+      <c r="V16" s="7" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W16" s="7" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>136</v>
       </c>
@@ -6701,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="5" customFormat="1">
+    <row r="18" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>89</v>
       </c>
@@ -6727,39 +6938,47 @@
         <v>0</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ref="J18:J20" si="22">AVERAGE(C18:H18)</f>
+        <f t="shared" ref="J18:J20" si="28">AVERAGE(C18:H18)</f>
         <v>100.83333333333333</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" ref="K18:K20" si="23">STDEV(C18:H18)</f>
+        <f t="shared" ref="K18:K20" si="29">STDEV(C18:H18)</f>
         <v>83.915235009303686</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" ref="O18:T18" si="24">300-C18</f>
+        <f t="shared" ref="O18:T18" si="30">300-C18</f>
         <v>148</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>261</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>108</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>118</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>260</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" s="7" customFormat="1">
+      <c r="V18" s="5">
+        <f t="shared" ref="V18:V20" si="31">AVERAGE(O18:T18)</f>
+        <v>199.16666666666666</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" ref="W18:W20" si="32">STDEV(O18:T18)</f>
+        <v>83.9152350093037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>134</v>
       </c>
@@ -6782,11 +7001,11 @@
         <v>978</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1232.8333333333333</v>
       </c>
       <c r="K19" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>141.63250568519499</v>
       </c>
       <c r="O19" s="21">
@@ -6794,27 +7013,35 @@
         <v>0.70335718216840948</v>
       </c>
       <c r="P19" s="21">
-        <f t="shared" ref="P19" si="25">D19/$B$28</f>
+        <f t="shared" ref="P19" si="33">D19/$B$28</f>
         <v>0.74023115024766095</v>
       </c>
       <c r="Q19" s="21">
-        <f t="shared" ref="Q19" si="26">E19/$B$28</f>
+        <f t="shared" ref="Q19" si="34">E19/$B$28</f>
         <v>0.63731425426527244</v>
       </c>
       <c r="R19" s="21">
-        <f t="shared" ref="R19" si="27">F19/$B$28</f>
+        <f t="shared" ref="R19" si="35">F19/$B$28</f>
         <v>0.71931755641166761</v>
       </c>
       <c r="S19" s="21">
-        <f t="shared" ref="S19" si="28">G19/$B$28</f>
+        <f t="shared" ref="S19" si="36">G19/$B$28</f>
         <v>0.73252614199229504</v>
       </c>
       <c r="T19" s="21">
-        <f t="shared" ref="T19" si="29">H19/$B$28</f>
+        <f t="shared" ref="T19" si="37">H19/$B$28</f>
         <v>0.53824986241056683</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" s="7" customFormat="1">
+      <c r="V19" s="7">
+        <f t="shared" si="31"/>
+        <v>0.6784993579159786</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="32"/>
+        <v>7.794854468090065E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>135</v>
       </c>
@@ -6837,15 +7064,23 @@
         <v>86</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>63.5</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>29.568564388552922</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" s="9" customFormat="1">
+      <c r="V20" s="7" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="7" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>136</v>
       </c>
@@ -6874,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="5" customFormat="1">
+    <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>107</v>
       </c>
@@ -6900,39 +7135,47 @@
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" ref="J22:J24" si="30">AVERAGE(C22:H22)</f>
+        <f t="shared" ref="J22:J24" si="38">AVERAGE(C22:H22)</f>
         <v>87.833333333333329</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" ref="K22:K24" si="31">STDEV(C22:H22)</f>
+        <f t="shared" ref="K22:K24" si="39">STDEV(C22:H22)</f>
         <v>100.77780840376847</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" ref="O22:T22" si="32">300-C22</f>
+        <f t="shared" ref="O22:T22" si="40">300-C22</f>
         <v>136</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>67</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>174</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>298</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>298</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" s="7" customFormat="1">
+      <c r="V22" s="5">
+        <f t="shared" ref="V22:V24" si="41">AVERAGE(O22:T22)</f>
+        <v>212.16666666666666</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" ref="W22:W24" si="42">STDEV(O22:T22)</f>
+        <v>100.77780840376845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>134</v>
       </c>
@@ -6955,39 +7198,47 @@
         <v>1703</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>1642.1666666666667</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="31"/>
-        <v>150.5103540181432</v>
+        <f t="shared" si="39"/>
+        <v>150.51035401814278</v>
       </c>
       <c r="O23" s="21">
         <f>C23/$B$28</f>
         <v>0.90203632361034669</v>
       </c>
       <c r="P23" s="21">
-        <f t="shared" ref="P23" si="33">D23/$B$28</f>
+        <f t="shared" ref="P23" si="43">D23/$B$28</f>
         <v>0.77600440286186023</v>
       </c>
       <c r="Q23" s="21">
-        <f t="shared" ref="Q23" si="34">E23/$B$28</f>
+        <f t="shared" ref="Q23" si="44">E23/$B$28</f>
         <v>0.96532746285085302</v>
       </c>
       <c r="R23" s="21">
-        <f t="shared" ref="R23" si="35">F23/$B$28</f>
+        <f t="shared" ref="R23" si="45">F23/$B$28</f>
         <v>1</v>
       </c>
       <c r="S23" s="21">
-        <f t="shared" ref="S23" si="36">G23/$B$28</f>
+        <f t="shared" ref="S23" si="46">G23/$B$28</f>
         <v>0.84204733076499727</v>
       </c>
       <c r="T23" s="21">
-        <f t="shared" ref="T23" si="37">H23/$B$28</f>
+        <f t="shared" ref="T23" si="47">H23/$B$28</f>
         <v>0.93725921849201976</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="7" customFormat="1">
+      <c r="V23" s="7">
+        <f t="shared" si="41"/>
+        <v>0.90377912309667963</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" si="42"/>
+        <v>8.283453715913193E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>135</v>
       </c>
@@ -7010,15 +7261,23 @@
         <v>78</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>61.666666666666664</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>30.949421103902193</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" s="9" customFormat="1">
+      <c r="V24" s="7" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="7" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>136</v>
       </c>
@@ -7047,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -7055,7 +7314,7 @@
         <v>5921</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>269</v>
       </c>
@@ -7063,7 +7322,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="5" customFormat="1">
+    <row r="30" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>264</v>
       </c>
@@ -7078,8 +7337,19 @@
         <f>STDEV(C2:H2, C6:H6, C10:H10)</f>
         <v>71.50117691796126</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" s="7" customFormat="1">
+      <c r="N30" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="V30" s="5">
+        <f>AVERAGE(O2:T2, O6:T6, O10:T10)</f>
+        <v>178.22222222222223</v>
+      </c>
+      <c r="W30" s="5">
+        <f>STDEV(O2:T2, O6:T6, O10:T10)</f>
+        <v>71.50117691796126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>134</v>
       </c>
@@ -7091,8 +7361,19 @@
         <f>STDEV(C3:H3, C7:H7, C11:H11)</f>
         <v>1512.1413030075717</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" s="9" customFormat="1">
+      <c r="N31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="V31" s="7">
+        <f>AVERAGE(O3:T3, O7:T7, O11:T11)</f>
+        <v>0.68171667698774618</v>
+      </c>
+      <c r="W31" s="7">
+        <f>STDEV(O3:T3, O7:T7, O11:T11)</f>
+        <v>0.25538613460691922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>135</v>
       </c>
@@ -7105,7 +7386,7 @@
         <v>29.673825970245531</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="5" customFormat="1">
+    <row r="33" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>265</v>
       </c>
@@ -7120,8 +7401,19 @@
         <f>STDEV(C14:H14,C18:H18,C22:H22)</f>
         <v>79.893965677227385</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="7" customFormat="1">
+      <c r="N33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="V33" s="5">
+        <f>AVERAGE(O14:T14,O18:T18,O22:T22)</f>
+        <v>198.88888888888889</v>
+      </c>
+      <c r="W33" s="5">
+        <f>STDEV(O14:T14,O18:T18,O22:T22)</f>
+        <v>79.893965677227371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>134</v>
       </c>
@@ -7133,8 +7425,19 @@
         <f>STDEV(C15:H15,C19:H19,C23:H23)</f>
         <v>332.55835401253933</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="9" customFormat="1">
+      <c r="N34" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="V34" s="7">
+        <f>AVERAGE(O15:T15,O19:T19,O23:T23)</f>
+        <v>0.70684278114107502</v>
+      </c>
+      <c r="W34" s="7">
+        <f>STDEV(O15:T15,O19:T19,O23:T23)</f>
+        <v>0.18302606164696728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>135</v>
       </c>
@@ -7147,7 +7450,7 @@
         <v>31.848908006028569</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1">
+    <row r="37" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>18</v>
       </c>
@@ -7162,8 +7465,19 @@
         <f>STDEV(C2:H2,C14:H14)</f>
         <v>61.982402194640549</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="7" customFormat="1">
+      <c r="N37" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="V37" s="5">
+        <f>AVERAGE(O2:T2,O14:T14)</f>
+        <v>179</v>
+      </c>
+      <c r="W37" s="5">
+        <f>STDEV(O2:T2,O14:T14)</f>
+        <v>61.982402194640549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>134</v>
       </c>
@@ -7175,8 +7489,19 @@
         <f>STDEV(C3:H3,C15:H15)</f>
         <v>1267.186010956417</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1">
+      <c r="N38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="V38" s="7">
+        <f>AVERAGE(O3:T3,O15:T15)</f>
+        <v>0.54124957231320436</v>
+      </c>
+      <c r="W38" s="7">
+        <f>STDEV(O3:T3,O15:T15)</f>
+        <v>0.12077728386018066</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>135</v>
       </c>
@@ -7189,7 +7514,7 @@
         <v>12.323911224882622</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="5" customFormat="1">
+    <row r="40" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -7204,8 +7529,19 @@
         <f>STDEV(C6:H6,C18:H18)</f>
         <v>82.940102520195907</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="7" customFormat="1">
+      <c r="N40" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="V40" s="5">
+        <f>AVERAGE(O6:T6,O18:T18)</f>
+        <v>197.16666666666666</v>
+      </c>
+      <c r="W40" s="5">
+        <f>STDEV(O6:T6,O18:T18)</f>
+        <v>82.940102520195907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>134</v>
       </c>
@@ -7217,8 +7553,19 @@
         <f>STDEV(C7:H7,C19:H19)</f>
         <v>1608.3854694014797</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1">
+      <c r="N41" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="V41" s="7">
+        <f>AVERAGE(O7:T7,O19:T19)</f>
+        <v>0.68371570384117364</v>
+      </c>
+      <c r="W41" s="7">
+        <f>STDEV(O7:T7,O19:T19)</f>
+        <v>0.1153064513579348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>135</v>
       </c>
@@ -7231,7 +7578,7 @@
         <v>28.968112039819143</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="5" customFormat="1">
+    <row r="43" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>71</v>
       </c>
@@ -7246,8 +7593,19 @@
         <f>STDEV(C10:H10,C22:H22)</f>
         <v>84.928312015594557</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="7" customFormat="1">
+      <c r="N43" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="V43" s="5">
+        <f>AVERAGE(O10:T10,O22:T22)</f>
+        <v>189.5</v>
+      </c>
+      <c r="W43" s="5">
+        <f>STDEV(O10:T10,O22:T22)</f>
+        <v>84.928312015594557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>134</v>
       </c>
@@ -7259,8 +7617,19 @@
         <f>STDEV(C11:H11,C23:H23)</f>
         <v>2240.332055677678</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1">
+      <c r="N44" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="V44" s="7">
+        <f>AVERAGE(O11:T11,O23:T23)</f>
+        <v>0.85787391103885369</v>
+      </c>
+      <c r="W44" s="7">
+        <f>STDEV(O11:T11,O23:T23)</f>
+        <v>0.26521136374383697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
         <v>135</v>
       </c>
@@ -7279,16 +7648,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>124</v>
       </c>
@@ -7311,7 +7680,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -7334,7 +7703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>143</v>
       </c>
@@ -7354,7 +7723,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>144</v>
       </c>
@@ -7374,7 +7743,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>143</v>
       </c>
@@ -7394,7 +7763,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>144</v>
       </c>
@@ -7414,7 +7783,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>143</v>
       </c>
@@ -7440,17 +7809,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
@@ -7461,7 +7830,7 @@
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>124</v>
       </c>
@@ -7487,7 +7856,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -7513,7 +7882,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>161</v>
       </c>
@@ -7544,7 +7913,7 @@
         <v>4.2622372841814773</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>162</v>
       </c>
@@ -7567,7 +7936,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>164</v>
       </c>
@@ -7590,7 +7959,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>166</v>
       </c>
@@ -7613,7 +7982,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>168</v>
       </c>
@@ -7636,7 +8005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1">
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>131</v>
       </c>
@@ -7670,7 +8039,7 @@
         <v>15.942605391424152</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1">
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>175</v>
       </c>
@@ -7701,7 +8070,7 @@
         <v>28.401877872187718</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="7" customFormat="1">
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>176</v>
       </c>
@@ -7732,7 +8101,7 @@
         <v>19.663841605003494</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="7" customFormat="1">
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>177</v>
       </c>
@@ -7763,7 +8132,7 @@
         <v>25.964719653149857</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1">
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>178</v>
       </c>
@@ -7794,7 +8163,7 @@
         <v>19.343388189938867</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>179</v>
       </c>
@@ -7825,7 +8194,7 @@
         <v>16.020819787597212</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="5" customFormat="1">
+    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
@@ -7859,7 +8228,7 @@
         <v>17.535677916750181</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>175</v>
       </c>
@@ -7890,7 +8259,7 @@
         <v>23.380903889000244</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1">
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>176</v>
       </c>
@@ -7921,7 +8290,7 @@
         <v>25.099800796022265</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>177</v>
       </c>
@@ -7949,10 +8318,10 @@
       </c>
       <c r="K17" s="7">
         <f t="shared" si="1"/>
-        <v>6.8313005106397142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="7" customFormat="1">
+        <v>6.8313005106397329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>178</v>
       </c>
@@ -7983,7 +8352,7 @@
         <v>19.493588689617926</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>179</v>
       </c>
@@ -8014,7 +8383,7 @@
         <v>24.238399287081645</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="5" customFormat="1">
+    <row r="20" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>132</v>
       </c>
@@ -8048,7 +8417,7 @@
         <v>12.110601416389956</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>175</v>
       </c>
@@ -8079,7 +8448,7 @@
         <v>26.156579796805751</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="7" customFormat="1">
+    <row r="22" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>176</v>
       </c>
@@ -8110,7 +8479,7 @@
         <v>17.724747294860549</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1">
+    <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>177</v>
       </c>
@@ -8141,7 +8510,7 @@
         <v>14.832396974191326</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1">
+    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>178</v>
       </c>
@@ -8172,7 +8541,7 @@
         <v>18.885620632287061</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1">
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>179</v>
       </c>
@@ -8203,7 +8572,7 @@
         <v>18.641351882307248</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1">
+    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>69</v>
       </c>
@@ -8237,7 +8606,7 @@
         <v>13.038404810405298</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1">
+    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>175</v>
       </c>
@@ -8268,7 +8637,7 @@
         <v>36.5604522218567</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1">
+    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>176</v>
       </c>
@@ -8299,7 +8668,7 @@
         <v>14.747881203752625</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1">
+    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>177</v>
       </c>
@@ -8330,7 +8699,7 @@
         <v>29.734940165849782</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1">
+    <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>178</v>
       </c>
@@ -8361,7 +8730,7 @@
         <v>13.570801990548206</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1">
+    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>179</v>
       </c>
@@ -8392,7 +8761,7 @@
         <v>23.021728866442675</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="5" customFormat="1">
+    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -8426,7 +8795,7 @@
         <v>17.795130420052178</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="7" customFormat="1">
+    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>175</v>
       </c>
@@ -8457,7 +8826,7 @@
         <v>22.94921930407801</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="7" customFormat="1">
+    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>176</v>
       </c>
@@ -8488,7 +8857,7 @@
         <v>23.752192881219756</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="7" customFormat="1">
+    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>177</v>
       </c>
@@ -8519,7 +8888,7 @@
         <v>19.235384061671343</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="7" customFormat="1">
+    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>178</v>
       </c>
@@ -8550,7 +8919,7 @@
         <v>16.633299933166192</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="7" customFormat="1">
+    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>179</v>
       </c>
@@ -8581,7 +8950,7 @@
         <v>22.527760652137619</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="5" customFormat="1">
+    <row r="38" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>107</v>
       </c>
@@ -8615,7 +8984,7 @@
         <v>14.719601443879737</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="7" customFormat="1">
+    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>175</v>
       </c>
@@ -8646,7 +9015,7 @@
         <v>23.540744819709225</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="7" customFormat="1">
+    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>176</v>
       </c>
@@ -8677,7 +9046,7 @@
         <v>14.288690166235197</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="7" customFormat="1">
+    <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>177</v>
       </c>
@@ -8708,7 +9077,7 @@
         <v>14.023789311975078</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="7" customFormat="1">
+    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>178</v>
       </c>
@@ -8739,7 +9108,7 @@
         <v>12.942179105544785</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="7" customFormat="1">
+    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>179</v>
       </c>
@@ -8770,7 +9139,7 @@
         <v>15.942605391424163</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>211</v>
       </c>
@@ -8796,7 +9165,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>182</v>
       </c>
@@ -8819,7 +9188,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>183</v>
       </c>
@@ -8842,7 +9211,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>184</v>
       </c>
@@ -8865,7 +9234,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>185</v>
       </c>
@@ -8888,7 +9257,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>186</v>
       </c>
@@ -8911,7 +9280,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>188</v>
       </c>
@@ -8934,7 +9303,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>189</v>
       </c>
@@ -8957,7 +9326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>190</v>
       </c>
@@ -8980,322 +9349,322 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>260</v>
       </c>
@@ -9304,4 +9673,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PathPlanner/UserStudyData/DataCombined.xlsx
+++ b/PathPlanner/UserStudyData/DataCombined.xlsx
@@ -6075,8 +6075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6222,35 +6222,35 @@
       </c>
       <c r="O3" s="21">
         <f>C3/$B$27</f>
-        <v>0.5213646343523054</v>
+        <v>0.51245019920318724</v>
       </c>
       <c r="P3" s="21">
         <f t="shared" ref="P3:T3" si="1">D3/$B$27</f>
-        <v>0.75747339976355343</v>
+        <v>0.74452191235059761</v>
       </c>
       <c r="Q3" s="21">
         <f t="shared" si="1"/>
-        <v>0.42712379665597028</v>
+        <v>0.41982071713147412</v>
       </c>
       <c r="R3" s="21">
         <f t="shared" si="1"/>
-        <v>0.54838709677419351</v>
+        <v>0.53901062416998669</v>
       </c>
       <c r="S3" s="21">
         <f t="shared" si="1"/>
-        <v>0.52693801722681977</v>
+        <v>0.51792828685258963</v>
       </c>
       <c r="T3" s="21">
         <f t="shared" si="1"/>
-        <v>0.48420874852220908</v>
+        <v>0.475929614873838</v>
       </c>
       <c r="V3" s="7">
         <f>AVERAGE(O3:T3)</f>
-        <v>0.5442492822158419</v>
+        <v>0.53494355909694546</v>
       </c>
       <c r="W3" s="7">
         <f>STDEV(O3:T3)</f>
-        <v>0.11280804747049737</v>
+        <v>0.11087922461368116</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6419,35 +6419,35 @@
       </c>
       <c r="O7" s="21">
         <f>C7/$B$27</f>
-        <v>0.74700219557507175</v>
+        <v>0.73422974767596283</v>
       </c>
       <c r="P7" s="21">
         <f t="shared" ref="P7" si="5">D7/$B$27</f>
-        <v>0.74885998986657654</v>
+        <v>0.73605577689243029</v>
       </c>
       <c r="Q7" s="21">
         <f t="shared" ref="Q7" si="6">E7/$B$27</f>
-        <v>0.73686877216686375</v>
+        <v>0.72426958831341304</v>
       </c>
       <c r="R7" s="21">
         <f t="shared" ref="R7" si="7">F7/$B$27</f>
-        <v>0.77807802736024323</v>
+        <v>0.76477423638778219</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" ref="S7" si="8">G7/$B$27</f>
-        <v>0.74277993582165169</v>
+        <v>0.73007968127490042</v>
       </c>
       <c r="T7" s="21">
         <f t="shared" ref="T7" si="9">H7/$B$27</f>
-        <v>0.38000337780780274</v>
+        <v>0.37350597609561753</v>
       </c>
       <c r="V7" s="7">
         <f t="shared" ref="V7:V8" si="10">AVERAGE(O7:T7)</f>
-        <v>0.68893204976636835</v>
+        <v>0.67715250110668446</v>
       </c>
       <c r="W7" s="7">
         <f t="shared" ref="W7:W8" si="11">STDEV(O7:T7)</f>
-        <v>0.15201641602489674</v>
+        <v>0.14941719775621165</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6616,35 +6616,35 @@
       </c>
       <c r="O11" s="21">
         <f>C11/$B$27</f>
-        <v>0.99020435737206558</v>
+        <v>0.97327357237715806</v>
       </c>
       <c r="P11" s="21">
         <f t="shared" ref="P11" si="17">D11/$B$27</f>
-        <v>1</v>
+        <v>0.98290172642762286</v>
       </c>
       <c r="Q11" s="21">
         <f t="shared" ref="Q11" si="18">E11/$B$27</f>
-        <v>0.98986657659179189</v>
+        <v>0.97294156706507307</v>
       </c>
       <c r="R11" s="21">
         <f t="shared" ref="R11" si="19">F11/$B$27</f>
-        <v>4.8640432359398751E-2</v>
+        <v>4.7808764940239043E-2</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" ref="S11" si="20">G11/$B$27</f>
-        <v>0.85576760682317177</v>
+        <v>0.84113545816733071</v>
       </c>
       <c r="T11" s="21">
         <f t="shared" ref="T11" si="21">H11/$B$27</f>
-        <v>0.98733322073973995</v>
+        <v>0.97045152722443562</v>
       </c>
       <c r="V11" s="7">
         <f t="shared" si="15"/>
-        <v>0.81196869898102797</v>
+        <v>0.79808543603364324</v>
       </c>
       <c r="W11" s="7">
         <f t="shared" si="16"/>
-        <v>0.37791863605458675</v>
+        <v>0.37145687982722569</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7311,7 +7311,7 @@
         <v>268</v>
       </c>
       <c r="B27">
-        <v>5921</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -7366,11 +7366,11 @@
       </c>
       <c r="V31" s="7">
         <f>AVERAGE(O3:T3, O7:T7, O11:T11)</f>
-        <v>0.68171667698774618</v>
+        <v>0.67006049874575757</v>
       </c>
       <c r="W31" s="7">
         <f>STDEV(O3:T3, O7:T7, O11:T11)</f>
-        <v>0.25538613460691922</v>
+        <v>0.25101947261081892</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7494,11 +7494,11 @@
       </c>
       <c r="V38" s="7">
         <f>AVERAGE(O3:T3,O15:T15)</f>
-        <v>0.54124957231320436</v>
+        <v>0.53659671075375626</v>
       </c>
       <c r="W38" s="7">
         <f>STDEV(O3:T3,O15:T15)</f>
-        <v>0.12077728386018066</v>
+        <v>0.11993415824678014</v>
       </c>
     </row>
     <row r="39" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7558,11 +7558,11 @@
       </c>
       <c r="V41" s="7">
         <f>AVERAGE(O7:T7,O19:T19)</f>
-        <v>0.68371570384117364</v>
+        <v>0.67782592951133169</v>
       </c>
       <c r="W41" s="7">
         <f>STDEV(O7:T7,O19:T19)</f>
-        <v>0.1153064513579348</v>
+        <v>0.11362330710239539</v>
       </c>
     </row>
     <row r="42" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7622,11 +7622,11 @@
       </c>
       <c r="V44" s="7">
         <f>AVERAGE(O11:T11,O23:T23)</f>
-        <v>0.85787391103885369</v>
+        <v>0.85093227956516138</v>
       </c>
       <c r="W44" s="7">
         <f>STDEV(O11:T11,O23:T23)</f>
-        <v>0.26521136374383697</v>
+        <v>0.26245732762102464</v>
       </c>
     </row>
     <row r="45" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
